--- a/kawa_smt/config_tlm.xlsx
+++ b/kawa_smt/config_tlm.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kawasakiakira/computation/desql/kawa/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kawasakiakira/computation/desql/kawa_smt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F9E47B2-419C-C74E-A506-5336CC355BD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A9EE8E-EA3C-144B-A104-0DC8C299D4F7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5480" yWindow="460" windowWidth="25580" windowHeight="19140" xr2:uid="{674675E6-2A54-C347-ADED-B49AA95E9E97}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="110">
   <si>
     <t>No.</t>
   </si>
@@ -213,30 +213,9 @@
     <t>binary</t>
   </si>
   <si>
-    <t>v_x</t>
-  </si>
-  <si>
-    <t>v_y</t>
-  </si>
-  <si>
-    <t>v_z</t>
-  </si>
-  <si>
-    <t>EA1</t>
-  </si>
-  <si>
-    <t>EA2</t>
-  </si>
-  <si>
-    <t>EA3</t>
-  </si>
-  <si>
     <t>EA</t>
   </si>
   <si>
-    <t>velocity</t>
-  </si>
-  <si>
     <t>ec</t>
   </si>
   <si>
@@ -358,6 +337,33 @@
   </si>
   <si>
     <t>cjc</t>
+  </si>
+  <si>
+    <t>PDU inhibit 1</t>
+  </si>
+  <si>
+    <t>PDU inhibit 2</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>Roll</t>
+  </si>
+  <si>
+    <t>Pitch</t>
+  </si>
+  <si>
+    <t>Yaw</t>
+  </si>
+  <si>
+    <t>disk space</t>
+  </si>
+  <si>
+    <t>PCB</t>
+  </si>
+  <si>
+    <t>data</t>
   </si>
 </sst>
 </file>
@@ -720,11 +726,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE05D0F0-18B2-A045-A8BA-808A6B30C776}">
-  <dimension ref="A1:L112"/>
+  <dimension ref="A1:L107"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -772,10 +778,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -810,10 +816,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
@@ -848,10 +854,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
@@ -1269,7 +1275,7 @@
         <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D15" s="2">
         <v>1</v>
@@ -1278,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1307,7 +1313,7 @@
         <v>55</v>
       </c>
       <c r="C16" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D16" s="2">
         <v>1</v>
@@ -1316,7 +1322,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -2064,10 +2070,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="C36" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D36" s="2">
         <v>1</v>
@@ -2102,10 +2108,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="C37" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D37" s="2">
         <v>1</v>
@@ -2114,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -2140,10 +2146,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>64</v>
+        <v>106</v>
       </c>
       <c r="C38" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D38" s="2">
         <v>1</v>
@@ -2152,7 +2158,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -2178,19 +2184,19 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
+        <v>92</v>
+      </c>
+      <c r="C39" t="s">
+        <v>91</v>
+      </c>
+      <c r="D39" s="2">
+        <v>1</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0</v>
+      </c>
+      <c r="F39">
         <v>59</v>
-      </c>
-      <c r="C39" t="s">
-        <v>66</v>
-      </c>
-      <c r="D39" s="2">
-        <v>1</v>
-      </c>
-      <c r="E39" s="2">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>56</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -2216,10 +2222,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="C40" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="D40" s="2">
         <v>1</v>
@@ -2228,7 +2234,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -2254,19 +2260,19 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C41" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D41" s="2">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E41" s="2">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -2289,22 +2295,22 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C42" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="D42" s="2">
-        <v>1</v>
+        <v>5.3</v>
       </c>
       <c r="E42" s="2">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -2327,22 +2333,22 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C43" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="D43" s="2">
-        <v>1</v>
+        <v>5.3</v>
       </c>
       <c r="E43" s="2">
         <v>0</v>
       </c>
       <c r="F43">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -2365,13 +2371,13 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="C44" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="D44" s="2">
         <v>1</v>
@@ -2380,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -2403,22 +2409,22 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="C45" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="D45" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E45" s="2">
         <v>0</v>
       </c>
       <c r="F45">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -2441,22 +2447,22 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="C46" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="D46" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E46" s="2">
         <v>0</v>
       </c>
       <c r="F46">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -2479,22 +2485,22 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C47" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D47" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E47" s="2">
         <v>0</v>
       </c>
       <c r="F47">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -2517,22 +2523,22 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C48" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D48" s="2">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E48" s="2">
         <v>0</v>
       </c>
       <c r="F48">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -2555,22 +2561,22 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C49" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D49" s="2">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="E49" s="2">
         <v>0</v>
       </c>
       <c r="F49">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -2593,22 +2599,22 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C50" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D50" s="2">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="E50" s="2">
         <v>0</v>
       </c>
       <c r="F50">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -2631,22 +2637,22 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C51" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D51" s="2">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="E51" s="2">
         <v>0</v>
       </c>
       <c r="F51">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -2669,22 +2675,22 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>79</v>
+      </c>
+      <c r="C52" t="s">
+        <v>98</v>
+      </c>
+      <c r="D52" s="2">
+        <v>1</v>
+      </c>
+      <c r="E52" s="2">
+        <v>1</v>
+      </c>
+      <c r="F52">
         <v>61</v>
-      </c>
-      <c r="B52" t="s">
-        <v>83</v>
-      </c>
-      <c r="C52" t="s">
-        <v>105</v>
-      </c>
-      <c r="D52" s="2">
-        <v>32</v>
-      </c>
-      <c r="E52" s="2">
-        <v>0</v>
-      </c>
-      <c r="F52">
-        <v>28</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -2707,22 +2713,22 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C53" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D53" s="2">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="E53" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -2745,22 +2751,22 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C54" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D54" s="2">
-        <v>128</v>
+        <v>4</v>
       </c>
       <c r="E54" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -2783,22 +2789,22 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C55" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D55" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E55" s="2">
         <v>1</v>
       </c>
       <c r="F55">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -2821,22 +2827,22 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C56" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D56" s="2">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E56" s="2">
         <v>1</v>
       </c>
       <c r="F56">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -2859,22 +2865,22 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C57" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D57" s="2">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="E57" s="2">
         <v>1</v>
       </c>
       <c r="F57">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -2897,22 +2903,22 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C58" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D58" s="2">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="E58" s="2">
         <v>1</v>
       </c>
       <c r="F58">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="G58">
         <v>1</v>
@@ -2935,22 +2941,22 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C59" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D59" s="2">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="E59" s="2">
         <v>1</v>
       </c>
       <c r="F59">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -2973,19 +2979,19 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C60" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="D60" s="2">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="E60" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60">
         <v>28</v>
@@ -3011,19 +3017,19 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="C61" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="D61" s="2">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="E61" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61">
         <v>28</v>
@@ -3049,19 +3055,19 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="C62" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="D62" s="2">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="E62" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62">
         <v>28</v>
@@ -3087,10 +3093,10 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C63" t="s">
         <v>58</v>
@@ -3125,10 +3131,10 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C64" t="s">
         <v>58</v>
@@ -3163,10 +3169,10 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C65" t="s">
         <v>58</v>
@@ -3201,13 +3207,13 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C66" t="s">
-        <v>58</v>
+        <v>107</v>
       </c>
       <c r="D66" s="2">
         <v>1</v>
@@ -3239,13 +3245,13 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C67" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D67" s="2">
         <v>1</v>
@@ -3274,6 +3280,26 @@
       <c r="L67">
         <v>-1</v>
       </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D76" s="1"/>
@@ -3402,26 +3428,6 @@
     <row r="107" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
-    </row>
-    <row r="108" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D108" s="1"/>
-      <c r="E108" s="1"/>
-    </row>
-    <row r="109" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D109" s="1"/>
-      <c r="E109" s="1"/>
-    </row>
-    <row r="110" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D110" s="1"/>
-      <c r="E110" s="1"/>
-    </row>
-    <row r="111" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D111" s="1"/>
-      <c r="E111" s="1"/>
-    </row>
-    <row r="112" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D112" s="1"/>
-      <c r="E112" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3431,11 +3437,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE7831BB-F7C3-7546-89C2-6E8E0330469B}">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3483,10 +3489,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -3521,10 +3527,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
@@ -3559,10 +3565,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
@@ -3600,7 +3606,7 @@
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D5" s="2">
         <v>0.5</v>
@@ -3638,7 +3644,7 @@
         <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D6" s="2">
         <v>0.5</v>
@@ -3676,7 +3682,7 @@
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
@@ -3714,7 +3720,7 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
@@ -3752,7 +3758,7 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D9" s="2">
         <v>1</v>
@@ -3790,7 +3796,7 @@
         <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D10" s="2">
         <v>1</v>
@@ -3828,7 +3834,7 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D11" s="2">
         <v>1</v>
@@ -3866,7 +3872,7 @@
         <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D12" s="2">
         <v>1</v>
@@ -3901,10 +3907,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C13" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D13" s="2">
         <v>1</v>
@@ -3931,6 +3937,44 @@
         <v>-1</v>
       </c>
       <c r="L13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>9</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>-1</v>
+      </c>
+      <c r="K14">
+        <v>-1</v>
+      </c>
+      <c r="L14">
         <v>-1</v>
       </c>
     </row>
